--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD11574-2269-1343-B33B-F76CCC9FE14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E90330-A35D-4A44-A098-E8662793112F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="4480" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8680" yWindow="7540" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -731,10 +731,6 @@
     <t xml:space="preserve"> 11:00 - 21:30</t>
   </si>
   <si>
-    <t>fig/AiCity-913-owndays.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/AiCity-913-Jins.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5984,6 +5980,10 @@
   </si>
   <si>
     <t>原總汽車有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-Owndays.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6395,7 +6395,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6442,10 +6442,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>142</v>
@@ -6460,7 +6460,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6468,10 +6468,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>143</v>
@@ -6486,7 +6486,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6494,10 +6494,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>144</v>
@@ -6512,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6520,16 +6520,16 @@
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -6538,7 +6538,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6546,16 +6546,16 @@
         <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -6564,7 +6564,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6572,10 +6572,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>147</v>
@@ -6590,7 +6590,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6598,10 +6598,10 @@
         <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>148</v>
@@ -6616,7 +6616,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6624,10 +6624,10 @@
         <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>149</v>
@@ -6642,7 +6642,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6650,10 +6650,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>150</v>
@@ -6668,7 +6668,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6676,10 +6676,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>151</v>
@@ -6694,7 +6694,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -6702,16 +6702,16 @@
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -6720,7 +6720,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6728,10 +6728,10 @@
         <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>153</v>
@@ -6746,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6754,25 +6754,25 @@
         <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6780,10 +6780,10 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>155</v>
@@ -6792,13 +6792,13 @@
         <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6806,10 +6806,10 @@
         <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>156</v>
@@ -6824,7 +6824,7 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -6832,10 +6832,10 @@
         <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>156</v>
@@ -6850,7 +6850,7 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -6858,10 +6858,10 @@
         <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>157</v>
@@ -6873,7 +6873,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -6881,10 +6881,10 @@
         <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>157</v>
@@ -6896,7 +6896,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -6904,10 +6904,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>157</v>
@@ -6919,7 +6919,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -6927,10 +6927,10 @@
         <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>157</v>
@@ -6942,7 +6942,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -6950,10 +6950,10 @@
         <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>158</v>
@@ -6968,7 +6968,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -6976,10 +6976,10 @@
         <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>159</v>
@@ -6994,7 +6994,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -7002,10 +7002,10 @@
         <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>160</v>
@@ -7014,13 +7014,13 @@
         <v>211</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -7028,10 +7028,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>161</v>
@@ -7040,13 +7040,13 @@
         <v>199</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -7054,10 +7054,10 @@
         <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>162</v>
@@ -7066,13 +7066,13 @@
         <v>212</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -7080,10 +7080,10 @@
         <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>163</v>
@@ -7092,13 +7092,13 @@
         <v>211</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -7106,10 +7106,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>164</v>
@@ -7118,13 +7118,13 @@
         <v>213</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -7132,10 +7132,10 @@
         <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>165</v>
@@ -7144,13 +7144,13 @@
         <v>213</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -7158,10 +7158,10 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>166</v>
@@ -7176,7 +7176,7 @@
         <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -7184,10 +7184,10 @@
         <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>167</v>
@@ -7202,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -7210,10 +7210,10 @@
         <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>168</v>
@@ -7228,7 +7228,7 @@
         <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -7236,10 +7236,10 @@
         <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>169</v>
@@ -7254,7 +7254,7 @@
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -7262,10 +7262,10 @@
         <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>170</v>
@@ -7280,7 +7280,7 @@
         <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -7288,10 +7288,10 @@
         <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>171</v>
@@ -7306,7 +7306,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -7314,10 +7314,10 @@
         <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>157</v>
@@ -7326,13 +7326,13 @@
         <v>215</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -7340,25 +7340,25 @@
         <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -7366,25 +7366,25 @@
         <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -7392,10 +7392,10 @@
         <v>104</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>172</v>
@@ -7404,13 +7404,13 @@
         <v>211</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -7418,10 +7418,10 @@
         <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>173</v>
@@ -7430,13 +7430,13 @@
         <v>216</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -7444,10 +7444,10 @@
         <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>174</v>
@@ -7459,7 +7459,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -7467,10 +7467,10 @@
         <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>157</v>
@@ -7482,7 +7482,7 @@
         <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -7490,10 +7490,10 @@
         <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>175</v>
@@ -7502,13 +7502,13 @@
         <v>218</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -7516,10 +7516,10 @@
         <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>176</v>
@@ -7528,13 +7528,13 @@
         <v>219</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -7542,10 +7542,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>177</v>
@@ -7554,7 +7554,7 @@
         <v>220</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -7562,10 +7562,10 @@
         <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>157</v>
@@ -7577,7 +7577,7 @@
         <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -7585,10 +7585,10 @@
         <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>157</v>
@@ -7600,7 +7600,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -7608,10 +7608,10 @@
         <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>178</v>
@@ -7626,7 +7626,7 @@
         <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -7634,10 +7634,10 @@
         <v>114</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>157</v>
@@ -7646,10 +7646,10 @@
         <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -7657,10 +7657,10 @@
         <v>115</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>179</v>
@@ -7669,10 +7669,10 @@
         <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -7683,7 +7683,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>180</v>
@@ -7698,7 +7698,7 @@
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -7706,10 +7706,10 @@
         <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>157</v>
@@ -7718,10 +7718,10 @@
         <v>223</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -7729,10 +7729,10 @@
         <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>181</v>
@@ -7741,13 +7741,13 @@
         <v>220</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -7755,10 +7755,10 @@
         <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>182</v>
@@ -7767,13 +7767,13 @@
         <v>199</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -7781,10 +7781,10 @@
         <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>157</v>
@@ -7793,13 +7793,13 @@
         <v>157</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -7807,25 +7807,25 @@
         <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
         <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>184</v>
@@ -7845,13 +7845,13 @@
         <v>224</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -7859,10 +7859,10 @@
         <v>123</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>185</v>
@@ -7871,13 +7871,13 @@
         <v>225</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -7885,10 +7885,10 @@
         <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>185</v>
@@ -7897,13 +7897,13 @@
         <v>225</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -7911,10 +7911,10 @@
         <v>125</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>186</v>
@@ -7923,13 +7923,13 @@
         <v>157</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -7937,10 +7937,10 @@
         <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>187</v>
@@ -7949,13 +7949,13 @@
         <v>214</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -7963,10 +7963,10 @@
         <v>127</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>188</v>
@@ -7975,13 +7975,13 @@
         <v>226</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -7989,10 +7989,10 @@
         <v>128</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>189</v>
@@ -8001,13 +8001,13 @@
         <v>227</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -8015,10 +8015,10 @@
         <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>157</v>
@@ -8027,13 +8027,13 @@
         <v>157</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -8041,10 +8041,10 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>190</v>
@@ -8053,13 +8053,13 @@
         <v>228</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -8067,10 +8067,10 @@
         <v>131</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>191</v>
@@ -8082,10 +8082,10 @@
         <v>59</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -8093,10 +8093,10 @@
         <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>192</v>
@@ -8111,7 +8111,7 @@
         <v>61</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -8119,10 +8119,10 @@
         <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>193</v>
@@ -8137,7 +8137,7 @@
         <v>63</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -8145,10 +8145,10 @@
         <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>194</v>
@@ -8163,7 +8163,7 @@
         <v>65</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8174,19 +8174,19 @@
         <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>139</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -8197,137 +8197,137 @@
         <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="F71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E90330-A35D-4A44-A098-E8662793112F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B48AF-7D6A-BA44-B96A-C21765603137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8680" yWindow="7540" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="451">
   <si>
     <t>title</t>
   </si>
@@ -6392,10 +6392,10 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8306,6 +8306,9 @@
       <c r="G75" s="6" t="s">
         <v>431</v>
       </c>
+      <c r="H75" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
@@ -8328,6 +8331,9 @@
       </c>
       <c r="G76" s="6" t="s">
         <v>440</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B48AF-7D6A-BA44-B96A-C21765603137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A205B5-0521-5A43-AA6E-3F95375B08D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="7540" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16360" yWindow="3980" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="458">
   <si>
     <t>title</t>
   </si>
@@ -5984,6 +5984,34 @@
   </si>
   <si>
     <t>fig/AiCity-913-Owndays.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>076</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林口公有零售市場</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-林口公有零售市場.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tour.ntpc.gov.tw/zh-tw/Attraction/Detail?wnd_id=60&amp;id=402259</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>244新北市林口區林口路15號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00–14:00, 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2900-4000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6389,13 +6417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8336,11 +8364,38 @@
         <v>425</v>
       </c>
     </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G71" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
     <hyperlink ref="G74" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
+    <hyperlink ref="G77" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A205B5-0521-5A43-AA6E-3F95375B08D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6BBBA-C093-9047-8B2E-3CC777A3CF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="3980" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16220" yWindow="3340" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -5819,9 +5819,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fig/AiCity-918-原總汽車.gif</t>
-  </si>
-  <si>
     <t>Toyota 豐田汽車</t>
   </si>
   <si>
@@ -6012,6 +6009,10 @@
   </si>
   <si>
     <t>02-2900-4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-原總汽車有限公司.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6423,7 +6424,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8208,7 +8209,7 @@
         <v>418</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>139</v>
@@ -8314,22 +8315,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>445</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>431</v>
@@ -8340,25 +8341,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>425</v>
@@ -8366,25 +8367,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>280</v>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6BBBA-C093-9047-8B2E-3CC777A3CF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11999B09-E4E7-9844-A0FF-455E43088632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="3340" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="2320" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -5822,9 +5822,6 @@
     <t>Toyota 豐田汽車</t>
   </si>
   <si>
-    <t>fig/AiCity-918-toyota.png</t>
-  </si>
-  <si>
     <t>https://www.toyota.com.tw/index.aspx</t>
   </si>
   <si>
@@ -6013,6 +6010,10 @@
   </si>
   <si>
     <t>fig/AiCity-913-原總汽車有限公司.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-toyota.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6424,7 +6425,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8209,7 +8210,7 @@
         <v>418</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>139</v>
@@ -8315,22 +8316,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>444</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>431</v>
@@ -8341,25 +8342,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>437</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>442</v>
-      </c>
       <c r="E76" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>425</v>
@@ -8367,25 +8368,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>280</v>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11999B09-E4E7-9844-A0FF-455E43088632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D7FCE-3640-6549-B389-98EF374AD1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="2320" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21680" yWindow="14600" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="465">
   <si>
     <t>title</t>
   </si>
@@ -6014,6 +6014,34 @@
   </si>
   <si>
     <t>fig/AiCity-913-toyota.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>葉綠素生鮮農產</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+桃園市桃園市龜山區忠義路二段520號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-5890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09;00 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LinkouChlorophyll/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-葉綠素.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6419,13 +6447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8392,12 +8420,39 @@
         <v>280</v>
       </c>
     </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G71" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
     <hyperlink ref="G74" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
     <hyperlink ref="G77" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
+    <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48D7FCE-3640-6549-B389-98EF374AD1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F816000-526D-EB4A-82C6-9D8B63FE606F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21680" yWindow="14600" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="4400" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="472">
   <si>
     <t>title</t>
   </si>
@@ -6042,6 +6042,35 @@
   </si>
   <si>
     <t>fig/AiCity-913-葉綠素.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>JASONS Market Place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市林口區文化三路一段356號GF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-9648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一到周四 11:00~21:30
+周五11:00~22:00
+週六到週日 10:30~22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jasons.com.tw/CHT/#sale_active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-Jasons.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6447,13 +6476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8446,6 +8475,32 @@
         <v>253</v>
       </c>
     </row>
+    <row r="79" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -8453,6 +8508,7 @@
     <hyperlink ref="G74" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
     <hyperlink ref="G77" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
     <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
+    <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F816000-526D-EB4A-82C6-9D8B63FE606F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9142EF-2871-8541-9A2C-528C66AF1F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="4400" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="4460" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="473">
   <si>
     <t>title</t>
   </si>
@@ -6071,6 +6071,10 @@
   </si>
   <si>
     <t>fig/AiCity-913-Jasons.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newtaipeilinkoudongshimarket/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6479,10 +6483,10 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7025,8 +7029,8 @@
       <c r="E21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
+      <c r="G21" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>280</v>
@@ -8509,6 +8513,7 @@
     <hyperlink ref="G77" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
     <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
     <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
+    <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9142EF-2871-8541-9A2C-528C66AF1F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C80374-23D4-0548-B9DA-D18E6E904308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="4460" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14000" yWindow="3740" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="480">
   <si>
     <t>title</t>
   </si>
@@ -6075,6 +6075,33 @@
   </si>
   <si>
     <t>https://www.facebook.com/newtaipeilinkoudongshimarket/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>立可酷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化一路6號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lookcool.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-立可酷.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0971-671-006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6480,13 +6507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8505,6 +8532,32 @@
         <v>253</v>
       </c>
     </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -8514,6 +8567,7 @@
     <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
     <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
+    <hyperlink ref="G80" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C80374-23D4-0548-B9DA-D18E6E904308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BB70A-5B63-1A4C-B346-7FDBC8BB85C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="3740" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3460" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -5041,29 +5041,6 @@
   </si>
   <si>
     <r>
-      <t>fig/AiCity-913-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>久久鎖印行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>39</t>
     </r>
     <r>
@@ -6102,6 +6079,30 @@
   </si>
   <si>
     <t>0971-671-006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-913-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>久久鎖印行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6510,10 +6511,10 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7057,7 +7058,7 @@
         <v>208</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>280</v>
@@ -8119,7 +8120,7 @@
         <v>227</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>21</v>
@@ -8133,10 +8134,10 @@
         <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>157</v>
@@ -8145,7 +8146,7 @@
         <v>157</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
@@ -8159,10 +8160,10 @@
         <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>190</v>
@@ -8171,7 +8172,7 @@
         <v>228</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>58</v>
@@ -8185,10 +8186,10 @@
         <v>131</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>191</v>
@@ -8211,10 +8212,10 @@
         <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>192</v>
@@ -8237,10 +8238,10 @@
         <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>193</v>
@@ -8263,10 +8264,10 @@
         <v>134</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>194</v>
@@ -8292,19 +8293,19 @@
         <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>139</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -8315,13 +8316,13 @@
         <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>230</v>
@@ -8330,7 +8331,7 @@
         <v>231</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8338,25 +8339,25 @@
         <v>233</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>236</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -8364,16 +8365,16 @@
         <v>234</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -8381,100 +8382,100 @@
         <v>237</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D75" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>280</v>
@@ -8482,25 +8483,25 @@
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>253</v>
@@ -8508,25 +8509,25 @@
     </row>
     <row r="79" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>253</v>
@@ -8534,25 +8535,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>356</v>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0BB70A-5B63-1A4C-B346-7FDBC8BB85C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9884FE-2DBA-A94E-AAA0-ADF7D873E56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3460" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="6120" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="550">
   <si>
     <t>title</t>
   </si>
@@ -6103,6 +6103,275 @@
       </rPr>
       <t>.jpg</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>Order 歐德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區復興一路258號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-5398</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-歐德.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.order.com.tw/goods.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦品窗飾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區永安路232號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-337-5758</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-敦品窗飾.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.curtain.tw/front/about</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻佳地毯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2600-8789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>244 新北市林口區南勢里76-8號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-鴻佳地毯.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://carpet.etrading.com.tw/company-profile.htm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day &amp; Day 日日商業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園縣蘆竹鄉中正路一號B1樓 特力居家購物中心 桃園南崁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-331-8691</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-DayDay.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.daynday.com.tw/dayday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日隆燈飾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市新莊區新北大道7段180號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2903-4178, 2903-4101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 22:00, or 14:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zlong.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-日隆燈飾.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10462 台北市中山區堤頂大道二段288號1樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 8502 5303, 02-8502-5303, 02-8502-5305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;00 - 19:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hefengcasa.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾豐傢俱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-禾豐.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇齊國際傢俱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cellini-teak.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-皇齊國際.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠的國際 / 城市居家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-綠的.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://green-furniture.com.tw/index.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-352-0377</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南崁特力家居  桃園縣蘆竹鄉中正路一號4樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-312-9556</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詩肯居家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-詩肯居家.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.scanliving.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0963-870-810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日月光國際</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市汐止區康寧街751巷13號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800-000-990</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.asehome.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-日月光.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡利亞傢俱 / 采舍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市汐止區康寧街751巷13號 B1008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2691-5188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.calia.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-采舍.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6192,7 +6461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -6205,6 +6474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6508,13 +6778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8559,6 +8829,289 @@
         <v>356</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -8569,6 +9122,17 @@
     <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
     <hyperlink ref="G80" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
+    <hyperlink ref="G81" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
+    <hyperlink ref="G82" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
+    <hyperlink ref="G83" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
+    <hyperlink ref="G84" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
+    <hyperlink ref="G85" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
+    <hyperlink ref="G86" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
+    <hyperlink ref="G87" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
+    <hyperlink ref="G88" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
+    <hyperlink ref="G89" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
+    <hyperlink ref="G90" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
+    <hyperlink ref="G91" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9884FE-2DBA-A94E-AAA0-ADF7D873E56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE73C39-6682-0D49-8BB2-52E883820AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="6120" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2760" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="561">
   <si>
     <t>title</t>
   </si>
@@ -6372,6 +6372,76 @@
   </si>
   <si>
     <t>fig/AiCity-913-采舍.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>091</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>092</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山蔬果生鮮批發</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區忠義路二段524號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-2498</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 -19:45, 週一公休</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E5%8D%97%E5%B1%B1%E8%94%AC%E8%8F%93%E7%94%9F%E9%AE%AE%E6%89%B9%E7%99%BC%E8%A1%8C-807724092714854</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-南山果菜.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>全聯福利中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pxmart - 長慶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>店</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區長慶三街</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即將開幕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6778,13 +6848,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92:XFD96"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8803,102 +8873,102 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>475</v>
+        <v>554</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>494</v>
+        <v>559</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>560</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>496</v>
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>304</v>
@@ -8906,25 +8976,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>304</v>
@@ -8932,25 +9002,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>304</v>
@@ -8958,25 +9025,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>524</v>
+        <v>483</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>304</v>
@@ -8984,25 +9051,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>304</v>
@@ -9010,25 +9077,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>529</v>
+        <v>485</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>524</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>304</v>
@@ -9036,25 +9103,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>304</v>
@@ -9062,25 +9129,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>304</v>
@@ -9088,27 +9155,79 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -9121,18 +9240,19 @@
     <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
     <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
-    <hyperlink ref="G80" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
-    <hyperlink ref="G81" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
-    <hyperlink ref="G82" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
-    <hyperlink ref="G83" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
-    <hyperlink ref="G84" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
-    <hyperlink ref="G85" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
-    <hyperlink ref="G86" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
-    <hyperlink ref="G87" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
-    <hyperlink ref="G88" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
-    <hyperlink ref="G89" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
-    <hyperlink ref="G90" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
-    <hyperlink ref="G91" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
+    <hyperlink ref="G82" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
+    <hyperlink ref="G83" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
+    <hyperlink ref="G84" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
+    <hyperlink ref="G85" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
+    <hyperlink ref="G86" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
+    <hyperlink ref="G87" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
+    <hyperlink ref="G88" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
+    <hyperlink ref="G89" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
+    <hyperlink ref="G90" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
+    <hyperlink ref="G91" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
+    <hyperlink ref="G92" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
+    <hyperlink ref="G93" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
+    <hyperlink ref="G80" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE73C39-6682-0D49-8BB2-52E883820AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73412232-BB8E-6E4C-9366-D042ACDAB0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2760" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19440" yWindow="9940" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="588">
   <si>
     <t>title</t>
   </si>
@@ -6442,6 +6442,118 @@
   </si>
   <si>
     <t>即將開幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清潔維修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫黃背心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800-088-885</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺北市內湖區堤頂大道1段327號4樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週五09:00 – 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yellow885.com.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-呼叫黃背心.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英敏智能清潔企業社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮縣吉安鄉中山路一段66號6樓之4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0982-485-907</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+週一到週五早上8:00~晚上22:00
+週六週日下午14:00~晚上22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://site-3588048-2802-4987.mystrikingly.com/?fbclid=IwAR3MI6-pW860yQRFO2eDwNd23m3xTZoXl3zF-Q_65WL7Lera2CM0kjza9Ao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-智敏清潔.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jackercleaning.com/n/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潔客幫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台北市中山區長安東路二段52號7樓
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-7744-8081</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平日 09:00 - 18:00
+例假日 9:00 - 12:30 ， 13:30 - 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-潔客幫.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內抽油煙機自行清洗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sofree.cc/range-hood-cleaner/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>網路分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uAviwlTDZrU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6848,13 +6960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9229,6 +9341,97 @@
       </c>
       <c r="H93" s="1" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -9253,6 +9456,11 @@
     <hyperlink ref="G92" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
     <hyperlink ref="G93" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
     <hyperlink ref="G80" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
+    <hyperlink ref="G94" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
+    <hyperlink ref="G95" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
+    <hyperlink ref="G96" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
+    <hyperlink ref="G97" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
+    <hyperlink ref="G98" r:id="rId24" xr:uid="{C731BA14-3632-6E4A-A2A4-DC67DC15DD70}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73412232-BB8E-6E4C-9366-D042ACDAB0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADA039-7ED9-344A-9486-3E34F8AA81B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="9940" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="9940" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="588">
   <si>
     <t>title</t>
   </si>
@@ -6553,7 +6553,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uAviwlTDZrU</t>
+    <t>fig/AiCity-913-抽油煙機.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6963,10 +6963,10 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9391,6 +9391,9 @@
       <c r="G95" s="3" t="s">
         <v>574</v>
       </c>
+      <c r="H95" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
@@ -9414,8 +9417,11 @@
       <c r="G96" s="3" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>583</v>
       </c>
@@ -9425,14 +9431,18 @@
       <c r="C97" s="1" t="s">
         <v>586</v>
       </c>
+      <c r="F97" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="G97" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="3" t="s">
-        <v>587</v>
-      </c>
+      <c r="H97" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9460,7 +9470,6 @@
     <hyperlink ref="G95" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
     <hyperlink ref="G96" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
     <hyperlink ref="G97" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
-    <hyperlink ref="G98" r:id="rId24" xr:uid="{C731BA14-3632-6E4A-A2A4-DC67DC15DD70}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ADA039-7ED9-344A-9486-3E34F8AA81B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD202B56-59F7-C44A-987D-C5905107235D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="9940" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="10960" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="594">
   <si>
     <t>title</t>
   </si>
@@ -6554,6 +6554,30 @@
   </si>
   <si>
     <t>fig/AiCity-913-抽油煙機.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-清潔法.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hk.news.yahoo.com/%E5%B9%B4%E5%BB%BF%E5%85%AB%E6%B4%97%E9%82%8B%E9%81%A2-%E5%A4%A7%E6%8E%83%E9%99%A4-%E6%B8%85%E6%BD%94%E5%AE%B6%E5%B1%85-%E6%96%B7%E6%8D%A8%E9%9B%A2-%E6%94%B6%E7%B4%8D-%E5%8E%BB%E6%B2%B9%E6%BC%AC-223059779.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清潔家居方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本達人收納術/去陳年油漬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何拆抽油煙機油網清洗？(林內牌/Rinnai)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6963,10 +6987,10 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F102" sqref="F102"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9431,6 +9455,9 @@
       <c r="C97" s="1" t="s">
         <v>586</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>587</v>
       </c>
@@ -9442,7 +9469,27 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G98" s="3"/>
+      <c r="A98" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9470,6 +9517,7 @@
     <hyperlink ref="G95" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
     <hyperlink ref="G96" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
     <hyperlink ref="G97" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
+    <hyperlink ref="G98" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD202B56-59F7-C44A-987D-C5905107235D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA226E0C-386B-9C47-9418-5C2CCCE0CB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="10960" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20000" yWindow="13200" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="601">
   <si>
     <t>title</t>
   </si>
@@ -6578,6 +6578,44 @@
   </si>
   <si>
     <t>如何拆抽油煙機油網清洗？(林內牌/Rinnai)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <r>
+      <t>Tasker 宅任務</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tasker.com.tw/life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-Tasker.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一至週五 8:30 ~ 11:50, 13:20 ~ 18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-8512-7525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全省網路服務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6984,13 +7022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomRight" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9488,6 +9526,32 @@
         <v>589</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>562</v>
       </c>
     </row>
@@ -9518,6 +9582,7 @@
     <hyperlink ref="G96" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
     <hyperlink ref="G97" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
     <hyperlink ref="G98" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
+    <hyperlink ref="G99" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA226E0C-386B-9C47-9418-5C2CCCE0CB58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910CFE9-CAC2-6342-A024-082395EF2393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20000" yWindow="13200" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="10320" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -7028,7 +7028,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0910CFE9-CAC2-6342-A024-082395EF2393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF12174-557D-7F4D-A9CA-D3AF3FAB5F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="10320" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="8440" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="608">
   <si>
     <t>title</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>https://bibi-woo.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>fig/</t>
   </si>
   <si>
     <t>fig/AiCity-913-taimall.gif</t>
@@ -6616,6 +6613,38 @@
   </si>
   <si>
     <t>全省網路服務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-威達.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威達運動用品專賣店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路446-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-318-1476</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WIDE.SPORT/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-汪旺寵物坊.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7022,13 +7051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7046,19 +7075,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -7072,19 +7101,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -7093,24 +7122,24 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -7119,24 +7148,24 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -7145,24 +7174,24 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -7171,24 +7200,24 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
@@ -7197,24 +7226,24 @@
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -7223,24 +7252,24 @@
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -7249,24 +7278,24 @@
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -7275,24 +7304,24 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -7301,24 +7330,24 @@
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -7327,24 +7356,24 @@
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>16</v>
@@ -7353,24 +7382,24 @@
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -7379,76 +7408,76 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
@@ -7457,24 +7486,24 @@
         <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
@@ -7483,116 +7512,116 @@
         <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -7601,24 +7630,24 @@
         <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>26</v>
@@ -7627,180 +7656,180 @@
         <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
@@ -7809,24 +7838,24 @@
         <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
@@ -7835,24 +7864,24 @@
         <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>35</v>
@@ -7861,24 +7890,24 @@
         <v>36</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
@@ -7887,24 +7916,24 @@
         <v>36</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>37</v>
@@ -7913,24 +7942,24 @@
         <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>39</v>
@@ -7939,318 +7968,318 @@
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>45</v>
@@ -8259,70 +8288,70 @@
         <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>48</v>
@@ -8331,1258 +8360,1285 @@
         <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>59</v>
+        <v>607</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>600</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>410</v>
+        <v>602</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>411</v>
+        <v>603</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>192</v>
+        <v>604</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>196</v>
+        <v>605</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>61</v>
+        <v>601</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>606</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>240</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="E71" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="C72" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G75" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>430</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>443</v>
+      <c r="E76" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="G78" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="H78" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D79" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F79" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="H79" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E80" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="H80" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E82" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>524</v>
+        <v>483</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>526</v>
+        <v>484</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>523</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F94" s="1" t="s">
+    </row>
+    <row r="96" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F96" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="H96" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="B97" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>592</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>562</v>
+      <c r="H100" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G71" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
-    <hyperlink ref="G74" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
-    <hyperlink ref="G77" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
-    <hyperlink ref="G78" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
-    <hyperlink ref="G79" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
+    <hyperlink ref="G72" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
+    <hyperlink ref="G75" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
+    <hyperlink ref="G78" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
+    <hyperlink ref="G79" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
+    <hyperlink ref="G80" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
-    <hyperlink ref="G82" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
-    <hyperlink ref="G83" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
-    <hyperlink ref="G84" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
-    <hyperlink ref="G85" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
-    <hyperlink ref="G86" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
-    <hyperlink ref="G87" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
-    <hyperlink ref="G88" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
-    <hyperlink ref="G89" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
-    <hyperlink ref="G90" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
-    <hyperlink ref="G91" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
-    <hyperlink ref="G92" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
-    <hyperlink ref="G93" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
-    <hyperlink ref="G80" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
-    <hyperlink ref="G94" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
-    <hyperlink ref="G95" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
-    <hyperlink ref="G96" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
-    <hyperlink ref="G97" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
-    <hyperlink ref="G98" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
-    <hyperlink ref="G99" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
+    <hyperlink ref="G83" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
+    <hyperlink ref="G84" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
+    <hyperlink ref="G85" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
+    <hyperlink ref="G86" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
+    <hyperlink ref="G87" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
+    <hyperlink ref="G88" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
+    <hyperlink ref="G89" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
+    <hyperlink ref="G90" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
+    <hyperlink ref="G91" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
+    <hyperlink ref="G92" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
+    <hyperlink ref="G93" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
+    <hyperlink ref="G94" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
+    <hyperlink ref="G81" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
+    <hyperlink ref="G95" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
+    <hyperlink ref="G96" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
+    <hyperlink ref="G97" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
+    <hyperlink ref="G98" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
+    <hyperlink ref="G99" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
+    <hyperlink ref="G100" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
+    <hyperlink ref="G67" r:id="rId26" xr:uid="{B2FAD3F1-82CD-564A-89EB-8DE0938B2D53}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF12174-557D-7F4D-A9CA-D3AF3FAB5F30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5D9F7-A76F-9848-AC76-55604E2AF264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="8440" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1540" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="620">
   <si>
     <t>title</t>
   </si>
@@ -3588,74 +3588,6 @@
         <family val="2"/>
       </rPr>
       <t>文德二路修改衣服換拉鍊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">333 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>桃園龜山區文德二路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>148</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>巷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>樓</t>
     </r>
   </si>
   <si>
@@ -6645,6 +6577,123 @@
   </si>
   <si>
     <t>fig/AiCity-913-汪旺寵物坊.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永大鎖匙刻印行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化二路97號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-397-9651</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 20:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-永大.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麗華修改衣服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>333</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>桃園市龜山區文德二路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>巷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文昌二街21巷13號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-396-3127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-麗華改衣.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7051,13 +7100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7601,7 +7650,7 @@
         <v>207</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>279</v>
@@ -8132,7 +8181,7 @@
         <v>343</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>344</v>
+        <v>616</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>156</v>
@@ -8149,25 +8198,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>614</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>346</v>
+        <v>617</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>217</v>
+        <v>618</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>347</v>
+        <v>619</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>43</v>
+        <v>613</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>337</v>
@@ -8175,45 +8221,51 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>279</v>
@@ -8221,218 +8273,212 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>156</v>
+        <v>221</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>362</v>
+        <v>46</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>362</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>222</v>
+        <v>198</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>50</v>
+        <v>361</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>242</v>
@@ -8440,117 +8486,117 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>377</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>380</v>
+        <v>156</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>223</v>
+        <v>379</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>184</v>
@@ -8559,694 +8605,697 @@
         <v>224</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>129</v>
+        <v>607</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>404</v>
+        <v>608</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>189</v>
+        <v>610</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>227</v>
+        <v>611</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>406</v>
+        <v>612</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>58</v>
+        <v>613</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>607</v>
+        <v>402</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>600</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>602</v>
+        <v>403</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>604</v>
+        <v>189</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>605</v>
+        <v>227</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>606</v>
+        <v>405</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>59</v>
+        <v>606</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>599</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>411</v>
+        <v>601</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>412</v>
+        <v>602</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>603</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>228</v>
+        <v>604</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>600</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>446</v>
+        <v>61</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>417</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>137</v>
+        <v>412</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>419</v>
+        <v>195</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>230</v>
+        <v>63</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>426</v>
+        <v>229</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>429</v>
+        <v>233</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>436</v>
+        <v>236</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="G80" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D81" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F81" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="H81" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E82" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F82" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>474</v>
+        <v>552</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>476</v>
+        <v>555</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>475</v>
+        <v>554</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>493</v>
+        <v>557</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>495</v>
+        <v>14</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>303</v>
@@ -9254,25 +9303,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>303</v>
@@ -9280,25 +9329,22 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>303</v>
@@ -9306,25 +9352,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>523</v>
+        <v>481</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>303</v>
@@ -9332,25 +9378,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>303</v>
@@ -9358,25 +9404,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>528</v>
+        <v>483</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>303</v>
@@ -9384,25 +9430,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>303</v>
@@ -9410,25 +9456,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>303</v>
@@ -9436,25 +9482,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>303</v>
@@ -9462,183 +9508,235 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F95" s="1" t="s">
+    </row>
+    <row r="98" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E98" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F98" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="H98" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="B99" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>588</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>561</v>
+      <c r="H102" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G72" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
-    <hyperlink ref="G75" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
-    <hyperlink ref="G78" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
-    <hyperlink ref="G79" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
-    <hyperlink ref="G80" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
+    <hyperlink ref="G74" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
+    <hyperlink ref="G77" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
+    <hyperlink ref="G80" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
+    <hyperlink ref="G81" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
+    <hyperlink ref="G82" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
-    <hyperlink ref="G83" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
-    <hyperlink ref="G84" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
-    <hyperlink ref="G85" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
-    <hyperlink ref="G86" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
-    <hyperlink ref="G87" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
-    <hyperlink ref="G88" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
-    <hyperlink ref="G89" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
-    <hyperlink ref="G90" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
-    <hyperlink ref="G91" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
-    <hyperlink ref="G92" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
-    <hyperlink ref="G93" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
-    <hyperlink ref="G94" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
-    <hyperlink ref="G81" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
-    <hyperlink ref="G95" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
-    <hyperlink ref="G96" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
-    <hyperlink ref="G97" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
-    <hyperlink ref="G98" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
-    <hyperlink ref="G99" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
-    <hyperlink ref="G100" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
-    <hyperlink ref="G67" r:id="rId26" xr:uid="{B2FAD3F1-82CD-564A-89EB-8DE0938B2D53}"/>
+    <hyperlink ref="G85" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
+    <hyperlink ref="G86" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
+    <hyperlink ref="G87" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
+    <hyperlink ref="G88" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
+    <hyperlink ref="G89" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
+    <hyperlink ref="G90" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
+    <hyperlink ref="G91" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
+    <hyperlink ref="G92" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
+    <hyperlink ref="G93" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
+    <hyperlink ref="G94" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
+    <hyperlink ref="G95" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
+    <hyperlink ref="G96" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
+    <hyperlink ref="G83" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
+    <hyperlink ref="G97" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
+    <hyperlink ref="G98" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
+    <hyperlink ref="G99" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
+    <hyperlink ref="G100" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
+    <hyperlink ref="G101" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
+    <hyperlink ref="G102" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
+    <hyperlink ref="G69" r:id="rId26" xr:uid="{B2FAD3F1-82CD-564A-89EB-8DE0938B2D53}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-73-Shopping.xlsx
+++ b/db/AiCity-73-Shopping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5D9F7-A76F-9848-AC76-55604E2AF264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF0010-DC0C-6447-9A77-CBCDC4807195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1540" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10300" yWindow="3700" windowWidth="41460" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="626">
   <si>
     <t>title</t>
   </si>
@@ -6694,6 +6694,80 @@
   </si>
   <si>
     <t>fig/AiCity-913-麗華改衣.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>汽車保修中心</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新北市林口區文化北路二段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>234-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2606-9494</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>09:30 - 19:00 週日公休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/G12CAR/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-913-G12.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6783,7 +6857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -6797,6 +6871,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7100,13 +7176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9124,204 +9200,204 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>548</v>
+        <v>462</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>303</v>
@@ -9329,22 +9405,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>303</v>
@@ -9352,25 +9431,22 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>303</v>
@@ -9378,25 +9454,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>303</v>
@@ -9404,25 +9480,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>522</v>
+        <v>482</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>303</v>
@@ -9430,25 +9506,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>524</v>
+        <v>483</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>303</v>
@@ -9456,25 +9532,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>303</v>
@@ -9482,25 +9558,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>303</v>
@@ -9508,25 +9584,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>303</v>
@@ -9534,25 +9610,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>540</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>303</v>
@@ -9560,100 +9636,103 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>577</v>
+        <v>567</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>560</v>
@@ -9661,22 +9740,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>584</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>560</v>
@@ -9684,27 +9763,50 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>560</v>
       </c>
     </row>
@@ -9713,30 +9815,31 @@
   <hyperlinks>
     <hyperlink ref="G74" r:id="rId1" xr:uid="{A39B8C40-8D45-EB49-A4FC-B32617C3743A}"/>
     <hyperlink ref="G77" r:id="rId2" xr:uid="{B5DCC527-C34A-A84A-863F-C7614151FE6F}"/>
-    <hyperlink ref="G80" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
-    <hyperlink ref="G81" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
-    <hyperlink ref="G82" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
+    <hyperlink ref="G81" r:id="rId3" xr:uid="{9F3F15C4-C0FD-AE4F-A261-C94D2C5C5CDD}"/>
+    <hyperlink ref="G82" r:id="rId4" xr:uid="{57110EDF-FEA5-304D-BC8D-B61106C21880}"/>
+    <hyperlink ref="G83" r:id="rId5" location="sale_active" xr:uid="{730FA5EB-C91B-144D-A783-4D831224B6A9}"/>
     <hyperlink ref="G21" r:id="rId6" xr:uid="{1F8F556A-7472-764F-A198-D7F42EFCC387}"/>
-    <hyperlink ref="G85" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
-    <hyperlink ref="G86" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
-    <hyperlink ref="G87" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
-    <hyperlink ref="G88" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
-    <hyperlink ref="G89" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
-    <hyperlink ref="G90" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
-    <hyperlink ref="G91" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
-    <hyperlink ref="G92" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
-    <hyperlink ref="G93" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
-    <hyperlink ref="G94" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
-    <hyperlink ref="G95" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
-    <hyperlink ref="G96" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
-    <hyperlink ref="G83" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
-    <hyperlink ref="G97" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
-    <hyperlink ref="G98" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
-    <hyperlink ref="G99" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
-    <hyperlink ref="G100" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
-    <hyperlink ref="G101" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
-    <hyperlink ref="G102" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
+    <hyperlink ref="G86" r:id="rId7" xr:uid="{D0E463C4-46AF-0146-87CD-46876FB5CA0D}"/>
+    <hyperlink ref="G87" r:id="rId8" xr:uid="{DF8FD8B1-A50B-9E4E-9410-150C09502DAB}"/>
+    <hyperlink ref="G88" r:id="rId9" xr:uid="{FF011359-39BB-A040-AED2-D2D90A217A10}"/>
+    <hyperlink ref="G89" r:id="rId10" xr:uid="{52BA0BCD-A138-3A42-93E9-9408D0B6CD41}"/>
+    <hyperlink ref="G90" r:id="rId11" xr:uid="{9E458828-6BFC-AB4C-A4E6-53D8A8D8253B}"/>
+    <hyperlink ref="G91" r:id="rId12" xr:uid="{797C08A4-A2BD-5D49-BEE3-7F410293040F}"/>
+    <hyperlink ref="G92" r:id="rId13" xr:uid="{57D191B5-DD54-2645-AB69-A35799A5A046}"/>
+    <hyperlink ref="G93" r:id="rId14" xr:uid="{62557C1E-2F58-2549-9A8E-CA804ED99346}"/>
+    <hyperlink ref="G94" r:id="rId15" xr:uid="{B65BA0E5-AE88-E644-B2DA-E644EF749608}"/>
+    <hyperlink ref="G95" r:id="rId16" xr:uid="{375077F2-2538-8F44-8A06-42AD5258C490}"/>
+    <hyperlink ref="G96" r:id="rId17" xr:uid="{645725E7-FD7F-7841-BD5D-4F55FBCDAB8D}"/>
+    <hyperlink ref="G97" r:id="rId18" xr:uid="{D8E83196-8EED-474F-A39D-4B8A53066F90}"/>
+    <hyperlink ref="G84" r:id="rId19" xr:uid="{D8074921-21AA-094E-B1E8-1A2B5D8215AB}"/>
+    <hyperlink ref="G98" r:id="rId20" xr:uid="{67DB94DD-4F2A-2B47-90EF-FED3ED8F2017}"/>
+    <hyperlink ref="G99" r:id="rId21" xr:uid="{F6F3D17A-11C3-804A-89D9-3C231334A22A}"/>
+    <hyperlink ref="G100" r:id="rId22" xr:uid="{D5F7639A-8FC0-444F-B0B1-291456215366}"/>
+    <hyperlink ref="G101" r:id="rId23" xr:uid="{11330544-149E-4E44-887B-D099FB91C68B}"/>
+    <hyperlink ref="G102" r:id="rId24" xr:uid="{D4D33B2C-3761-F641-A6A0-FB428FA1BAC6}"/>
+    <hyperlink ref="G103" r:id="rId25" xr:uid="{40CF7C3F-7CEF-0245-8E88-7892E420529A}"/>
     <hyperlink ref="G69" r:id="rId26" xr:uid="{B2FAD3F1-82CD-564A-89EB-8DE0938B2D53}"/>
+    <hyperlink ref="G80" r:id="rId27" xr:uid="{1FE5A63E-4D12-4C4C-A566-E71804C9006E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
